--- a/tests/raw.data/raw.guide.xlsx
+++ b/tests/raw.data/raw.guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="220" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="f2.initial" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="m12.fsa" sheetId="5" r:id="rId4"/>
     <sheet name="m13.est" sheetId="6" r:id="rId5"/>
     <sheet name="m16.quest" sheetId="7" r:id="rId6"/>
+    <sheet name="a9.est" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="829">
   <si>
     <t>Thermal</t>
   </si>
@@ -2475,6 +2476,42 @@
   </si>
   <si>
     <t>far away specks; eagles or Gulls</t>
+  </si>
+  <si>
+    <t>44 m</t>
+  </si>
+  <si>
+    <t>25 m</t>
+  </si>
+  <si>
+    <t>4/5 prime to focus on, towards water</t>
+  </si>
+  <si>
+    <t>60 m</t>
+  </si>
+  <si>
+    <t>4/4 nearer island</t>
+  </si>
+  <si>
+    <t>84 m</t>
+  </si>
+  <si>
+    <t>2nd photo</t>
+  </si>
+  <si>
+    <t>50 m</t>
+  </si>
+  <si>
+    <t>53 m</t>
+  </si>
+  <si>
+    <t>heron</t>
+  </si>
+  <si>
+    <t>10 m</t>
+  </si>
+  <si>
+    <t>crow on single branch</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -7192,4 +7229,74 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>820</v>
+      </c>
+      <c r="E12" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>824</v>
+      </c>
+      <c r="E14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>825</v>
+      </c>
+      <c r="E16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E18" t="s">
+        <v>828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tests/raw.data/raw.guide.xlsx
+++ b/tests/raw.data/raw.guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="8340" yWindow="660" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="f2.initial" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,9 @@
     <sheet name="m12.fsa" sheetId="5" r:id="rId4"/>
     <sheet name="m13.est" sheetId="6" r:id="rId5"/>
     <sheet name="m16.quest" sheetId="7" r:id="rId6"/>
-    <sheet name="a9.est" sheetId="8" r:id="rId7"/>
+    <sheet name="a8.in" sheetId="9" r:id="rId7"/>
+    <sheet name="a9.est" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="893">
   <si>
     <t>Thermal</t>
   </si>
@@ -2484,34 +2486,226 @@
     <t>25 m</t>
   </si>
   <si>
-    <t>4/5 prime to focus on, towards water</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
-    <t>4/4 nearer island</t>
-  </si>
-  <si>
     <t>84 m</t>
   </si>
   <si>
-    <t>2nd photo</t>
-  </si>
-  <si>
     <t>50 m</t>
   </si>
   <si>
     <t>53 m</t>
   </si>
   <si>
-    <t>heron</t>
-  </si>
-  <si>
     <t>10 m</t>
   </si>
   <si>
     <t>crow on single branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW started at 2:30 </t>
+  </si>
+  <si>
+    <t>.97 m up</t>
+  </si>
+  <si>
+    <t>model 5 m from camera</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>FLIR1965</t>
+  </si>
+  <si>
+    <t>FLIR1967</t>
+  </si>
+  <si>
+    <t>FLIR1966</t>
+  </si>
+  <si>
+    <t>FLIR1968</t>
+  </si>
+  <si>
+    <t>FLIR1969</t>
+  </si>
+  <si>
+    <t>FLIR1971</t>
+  </si>
+  <si>
+    <t>FLIR1973</t>
+  </si>
+  <si>
+    <t>FLIR1975</t>
+  </si>
+  <si>
+    <t>FLIR1977</t>
+  </si>
+  <si>
+    <t>FLIR1979</t>
+  </si>
+  <si>
+    <t>FLIR1981</t>
+  </si>
+  <si>
+    <t>FLIR1983</t>
+  </si>
+  <si>
+    <t>FLIR1985</t>
+  </si>
+  <si>
+    <t>FLIR1987</t>
+  </si>
+  <si>
+    <t>FLIR1989</t>
+  </si>
+  <si>
+    <t>FLIR1991</t>
+  </si>
+  <si>
+    <t>FLIR1993</t>
+  </si>
+  <si>
+    <t>FLIR1995</t>
+  </si>
+  <si>
+    <t>FLIR1970</t>
+  </si>
+  <si>
+    <t>FLIR1972</t>
+  </si>
+  <si>
+    <t>FLIR1974</t>
+  </si>
+  <si>
+    <t>FLIR1976</t>
+  </si>
+  <si>
+    <t>FLIR1978</t>
+  </si>
+  <si>
+    <t>FLIR1980</t>
+  </si>
+  <si>
+    <t>FLIR1982</t>
+  </si>
+  <si>
+    <t>FLIR1984</t>
+  </si>
+  <si>
+    <t>FLIR1986</t>
+  </si>
+  <si>
+    <t>FLIR1988</t>
+  </si>
+  <si>
+    <t>FLIR1990</t>
+  </si>
+  <si>
+    <t>not sure of 5 in frame, eventually it was confirmed there were 5 in that group so its likely</t>
+  </si>
+  <si>
+    <t>FLIR1992</t>
+  </si>
+  <si>
+    <t>FLIR1994</t>
+  </si>
+  <si>
+    <t>FLIR1996</t>
+  </si>
+  <si>
+    <t>FLIR1998</t>
+  </si>
+  <si>
+    <t>FLIR2000</t>
+  </si>
+  <si>
+    <t>FLIR2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Don't have weather data for a 10 big rip me</t>
+  </si>
+  <si>
+    <t>Really difficult to image/spot due to darkness and weather (raining + concerns about thermal imager)</t>
+  </si>
+  <si>
+    <t>I now realize the thing I thought I was tracking was the powered machinery on the other side of the water; not my best moment</t>
+  </si>
+  <si>
+    <t>This is also why I decided the better move for finding individuals/live birds is to fly the drone over it and have second person confirming with handheld/visual if needed</t>
+  </si>
+  <si>
+    <t>FLIR2035</t>
+  </si>
+  <si>
+    <t>FLIR2037</t>
+  </si>
+  <si>
+    <t>FLIR2036</t>
+  </si>
+  <si>
+    <t>FLIR2038</t>
+  </si>
+  <si>
+    <t>B.G. Heron</t>
+  </si>
+  <si>
+    <t>FLIR1997</t>
+  </si>
+  <si>
+    <t>FLIR1999</t>
+  </si>
+  <si>
+    <t>FLIR2001</t>
+  </si>
+  <si>
+    <t>FLIR2003</t>
+  </si>
+  <si>
+    <t>FLIR2005</t>
+  </si>
+  <si>
+    <t>FLIR2007</t>
+  </si>
+  <si>
+    <t>FLIR2009</t>
+  </si>
+  <si>
+    <t>FLIR2004</t>
+  </si>
+  <si>
+    <t>FLIR2006</t>
+  </si>
+  <si>
+    <t>FLIR2008</t>
+  </si>
+  <si>
+    <t>FLIR2010</t>
+  </si>
+  <si>
+    <t>heard and thermal photo made spotting instant, never saw visually</t>
+  </si>
+  <si>
+    <t>example of how cool and uniform trees/plants are predawn</t>
+  </si>
+  <si>
+    <t>another Bird outside of thermal FOV but in visual ack k!</t>
+  </si>
+  <si>
+    <t>Heard, can't remember if identified; american robin or sparrow</t>
+  </si>
+  <si>
+    <t>dim photo</t>
+  </si>
+  <si>
+    <t>seems likely 5th is hidden by bank</t>
+  </si>
+  <si>
+    <t>confirmed 5 in group from earlier</t>
   </si>
 </sst>
 </file>
@@ -2567,8 +2761,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2600,7 +2796,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2613,6 +2809,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2625,6 +2822,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5397,7 +5595,7 @@
   <dimension ref="A4:F113"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7233,62 +7431,499 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E18"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" spans="2:5">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>834</v>
+      </c>
       <c r="B5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>848</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>835</v>
+      </c>
       <c r="B6" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>849</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+      <c r="G7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B8" t="s">
+        <v>851</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>839</v>
+      </c>
+      <c r="B10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>841</v>
+      </c>
       <c r="B12" t="s">
-        <v>820</v>
-      </c>
-      <c r="E12" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>855</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>842</v>
+      </c>
       <c r="B13" t="s">
-        <v>822</v>
+        <v>856</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>843</v>
+      </c>
       <c r="B14" t="s">
+        <v>857</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>844</v>
+      </c>
+      <c r="B15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>845</v>
+      </c>
+      <c r="B16" t="s">
+        <v>860</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" t="s">
+        <v>861</v>
+      </c>
+      <c r="G17" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>875</v>
+      </c>
+      <c r="B18" t="s">
+        <v>862</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B19" t="s">
+        <v>863</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>877</v>
+      </c>
+      <c r="B20" t="s">
+        <v>864</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>878</v>
+      </c>
+      <c r="B21" t="s">
+        <v>882</v>
+      </c>
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>879</v>
+      </c>
+      <c r="B22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>880</v>
+      </c>
+      <c r="B23" t="s">
+        <v>884</v>
+      </c>
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>881</v>
+      </c>
+      <c r="B24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>823</v>
+      </c>
+      <c r="G24" t="s">
         <v>824</v>
       </c>
-      <c r="E14" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>825</v>
-      </c>
-      <c r="E16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E18" t="s">
-        <v>828</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>871</v>
+      </c>
+      <c r="B8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C8" t="s">
+        <v>874</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
